--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t xml:space="preserve">Principle</t>
   </si>
@@ -162,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +182,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
